--- a/OUT/d_stats_exploratory/PartitionedP_summaries.ANNOT_2022-11-16.xlsx
+++ b/OUT/d_stats_exploratory/PartitionedP_summaries.ANNOT_2022-11-16.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahipp\Documents\CODE\cerris-fdb\OUT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahipp\Documents\CODE\cerris-fdb\OUT\d_stats_exploratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F834CCED-C797-4CBC-B123-4F9872BBFF17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E661400D-60D4-4F5F-9C90-161D2D812447}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PartitionedP_summaries" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="500">
   <si>
     <t>test</t>
   </si>
@@ -958,18 +958,6 @@
     <t>0.006 [0,0.049]</t>
   </si>
   <si>
-    <t>NA|NA|NA</t>
-  </si>
-  <si>
-    <t>0.039 [-0.052,0.133]</t>
-  </si>
-  <si>
-    <t>2.991 [0.074,7.196]</t>
-  </si>
-  <si>
-    <t>0.621 [0,1]</t>
-  </si>
-  <si>
     <t>0.1 [0.067,0.145]</t>
   </si>
   <si>
@@ -1120,15 +1108,6 @@
     <t>16.498 [12.541,21.644]</t>
   </si>
   <si>
-    <t>0.094 [-0.183,0.332]</t>
-  </si>
-  <si>
-    <t>8.504 [0.147,21.363]</t>
-  </si>
-  <si>
-    <t>0.268 [0,1]</t>
-  </si>
-  <si>
     <t>0.283 [0.252,0.314]</t>
   </si>
   <si>
@@ -1247,15 +1226,6 @@
   </si>
   <si>
     <t>18.834 [11.548,37.679]</t>
-  </si>
-  <si>
-    <t>0.14 [-0.231,0.413]</t>
-  </si>
-  <si>
-    <t>12.731 [0.462,32.411]</t>
-  </si>
-  <si>
-    <t>0.147 [0,1]</t>
   </si>
   <si>
     <t>0.29 [0.226,0.442]</t>
@@ -1572,6 +1542,9 @@
       </rPr>
       <t>0.01)</t>
     </r>
+  </si>
+  <si>
+    <t>Total tests significant</t>
   </si>
 </sst>
 </file>
@@ -2075,7 +2048,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2092,6 +2065,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2447,10 +2421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,9 +2440,9 @@
     <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2492,10 +2466,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2523,8 +2500,12 @@
       <c r="I2" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="10">
+        <f>I2*E2</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2552,8 +2533,12 @@
       <c r="I3" s="6">
         <v>0.98699999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="10">
+        <f t="shared" ref="J3:J66" si="0">I3*E3</f>
+        <v>148.05000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2581,8 +2566,12 @@
       <c r="I4" s="6">
         <v>0.99299999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="10">
+        <f t="shared" si="0"/>
+        <v>148.94999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2610,8 +2599,12 @@
       <c r="I5" s="6">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="10">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -2639,8 +2632,12 @@
       <c r="I6" s="8">
         <v>0.61499999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="10">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2668,8 +2665,9 @@
       <c r="I7" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -2697,8 +2695,12 @@
       <c r="I8" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="10">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -2726,8 +2728,12 @@
       <c r="I9" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="10">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -2755,8 +2761,12 @@
       <c r="I10" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="10">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2784,8 +2794,12 @@
       <c r="I11" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="10">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -2813,8 +2827,9 @@
       <c r="I12" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -2842,8 +2857,12 @@
       <c r="I13" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>3</v>
       </c>
@@ -2871,8 +2890,12 @@
       <c r="I14" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -2900,8 +2923,12 @@
       <c r="I15" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="10">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -2929,8 +2956,12 @@
       <c r="I16" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="10">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -2958,8 +2989,12 @@
       <c r="I17" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="10">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -2987,8 +3022,12 @@
       <c r="I18" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="10">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
@@ -3016,8 +3055,9 @@
       <c r="I19" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -3045,8 +3085,12 @@
       <c r="I20" s="6">
         <v>0.96299999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="10">
+        <f t="shared" si="0"/>
+        <v>52.001999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4</v>
       </c>
@@ -3074,8 +3118,12 @@
       <c r="I21" s="6">
         <v>0.96299999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="10">
+        <f t="shared" si="0"/>
+        <v>52.001999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -3103,8 +3151,12 @@
       <c r="I22" s="7">
         <v>0.65400000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="10">
+        <f t="shared" si="0"/>
+        <v>52.974000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>4</v>
       </c>
@@ -3132,8 +3184,12 @@
       <c r="I23" s="7">
         <v>0.61699999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="10">
+        <f t="shared" si="0"/>
+        <v>49.976999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>4</v>
       </c>
@@ -3161,8 +3217,12 @@
       <c r="I24" s="7">
         <v>0.59299999999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="10">
+        <f t="shared" si="0"/>
+        <v>48.033000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>4</v>
       </c>
@@ -3190,8 +3250,12 @@
       <c r="I25" s="7">
         <v>0.59299999999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="10">
+        <f t="shared" si="0"/>
+        <v>48.033000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
@@ -3219,10 +3283,11 @@
       <c r="I26" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>213</v>
@@ -3248,10 +3313,14 @@
       <c r="I27" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>213</v>
@@ -3277,10 +3346,14 @@
       <c r="I28" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>213</v>
@@ -3306,10 +3379,14 @@
       <c r="I29" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>213</v>
@@ -3335,10 +3412,14 @@
       <c r="I30" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>213</v>
@@ -3364,10 +3445,14 @@
       <c r="I31" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>213</v>
@@ -3393,8 +3478,12 @@
       <c r="I32" s="6">
         <v>0.96299999999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="10">
+        <f t="shared" si="0"/>
+        <v>26.000999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3422,10 +3511,11 @@
       <c r="I33" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>228</v>
@@ -3451,10 +3541,14 @@
       <c r="I34" s="6">
         <v>0.88900000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="10">
+        <f t="shared" si="0"/>
+        <v>16.001999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>228</v>
@@ -3480,12 +3574,16 @@
       <c r="I35" s="6">
         <v>0.88900000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="10">
+        <f t="shared" si="0"/>
+        <v>16.001999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B36" t="s">
+        <v>493</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C36" t="s">
@@ -3509,12 +3607,16 @@
       <c r="I36" s="7">
         <v>0.185</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="10">
+        <f t="shared" si="0"/>
+        <v>4.9950000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B37" t="s">
+        <v>493</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C37" t="s">
@@ -3538,12 +3640,16 @@
       <c r="I37" s="7">
         <v>7.3999999999999996E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="10">
+        <f t="shared" si="0"/>
+        <v>1.998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B38" t="s">
+        <v>493</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C38" t="s">
@@ -3567,12 +3673,16 @@
       <c r="I38" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B39" t="s">
+        <v>493</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C39" t="s">
@@ -3596,8 +3706,12 @@
       <c r="I39" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
@@ -3625,10 +3739,11 @@
       <c r="I40" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>247</v>
@@ -3654,10 +3769,14 @@
       <c r="I41" s="6">
         <v>0.88900000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="10">
+        <f t="shared" si="0"/>
+        <v>16.001999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>247</v>
@@ -3683,10 +3802,14 @@
       <c r="I42" s="6">
         <v>0.88900000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="10">
+        <f t="shared" si="0"/>
+        <v>16.001999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>247</v>
@@ -3712,10 +3835,14 @@
       <c r="I43" s="6">
         <v>0.70399999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="10">
+        <f t="shared" si="0"/>
+        <v>19.007999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>247</v>
@@ -3741,10 +3868,14 @@
       <c r="I44" s="6">
         <v>0.70399999999999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="10">
+        <f t="shared" si="0"/>
+        <v>19.007999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B45" t="s">
         <v>247</v>
@@ -3770,10 +3901,14 @@
       <c r="I45" s="7">
         <v>0.74099999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="10">
+        <f t="shared" si="0"/>
+        <v>20.007000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B46" t="s">
         <v>247</v>
@@ -3799,8 +3934,12 @@
       <c r="I46" s="7">
         <v>0.66700000000000004</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="10">
+        <f t="shared" si="0"/>
+        <v>18.009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>33</v>
       </c>
@@ -3828,8 +3967,9 @@
       <c r="I47" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>5</v>
       </c>
@@ -3857,8 +3997,12 @@
       <c r="I48" s="7">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>5</v>
       </c>
@@ -3886,8 +4030,12 @@
       <c r="I49" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>5</v>
       </c>
@@ -3915,8 +4063,12 @@
       <c r="I50" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J50" s="10">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>5</v>
       </c>
@@ -3944,8 +4096,12 @@
       <c r="I51" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="10">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>5</v>
       </c>
@@ -3973,8 +4129,12 @@
       <c r="I52" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="10">
+        <f t="shared" si="0"/>
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>5</v>
       </c>
@@ -4002,8 +4162,12 @@
       <c r="I53" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>5</v>
       </c>
@@ -4031,8 +4195,12 @@
       <c r="I54" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J54" s="10">
+        <f t="shared" si="0"/>
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>5</v>
       </c>
@@ -4060,8 +4228,12 @@
       <c r="I55" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="10">
+        <f t="shared" si="0"/>
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>5</v>
       </c>
@@ -4089,8 +4261,12 @@
       <c r="I56" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J56" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>5</v>
       </c>
@@ -4118,8 +4294,12 @@
       <c r="I57" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>5</v>
       </c>
@@ -4147,8 +4327,12 @@
       <c r="I58" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>5</v>
       </c>
@@ -4176,8 +4360,12 @@
       <c r="I59" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>5</v>
       </c>
@@ -4205,8 +4393,12 @@
       <c r="I60" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J60" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>5</v>
       </c>
@@ -4234,8 +4426,12 @@
       <c r="I61" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J61" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>5</v>
       </c>
@@ -4263,8 +4459,12 @@
       <c r="I62" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>5</v>
       </c>
@@ -4292,8 +4492,12 @@
       <c r="I63" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>5</v>
       </c>
@@ -4321,8 +4525,12 @@
       <c r="I64" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>5</v>
       </c>
@@ -4350,8 +4558,12 @@
       <c r="I65" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>5</v>
       </c>
@@ -4379,8 +4591,12 @@
       <c r="I66" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>5</v>
       </c>
@@ -4408,8 +4624,12 @@
       <c r="I67" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="10">
+        <f t="shared" ref="J67:J129" si="1">I67*E67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>5</v>
       </c>
@@ -4437,8 +4657,12 @@
       <c r="I68" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>5</v>
       </c>
@@ -4466,8 +4690,12 @@
       <c r="I69" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>5</v>
       </c>
@@ -4495,8 +4723,12 @@
       <c r="I70" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>5</v>
       </c>
@@ -4524,8 +4756,12 @@
       <c r="I71" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>5</v>
       </c>
@@ -4553,8 +4789,12 @@
       <c r="I72" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>33</v>
       </c>
@@ -4582,8 +4822,12 @@
       <c r="I73" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>6</v>
       </c>
@@ -4611,8 +4855,12 @@
       <c r="I74" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>6</v>
       </c>
@@ -4640,8 +4888,12 @@
       <c r="I75" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>6</v>
       </c>
@@ -4669,8 +4921,12 @@
       <c r="I76" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>6</v>
       </c>
@@ -4698,8 +4954,12 @@
       <c r="I77" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>6</v>
       </c>
@@ -4727,8 +4987,12 @@
       <c r="I78" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>6</v>
       </c>
@@ -4756,8 +5020,12 @@
       <c r="I79" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>6</v>
       </c>
@@ -4785,8 +5053,12 @@
       <c r="I80" s="6">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="10">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>6</v>
       </c>
@@ -4814,8 +5086,12 @@
       <c r="I81" s="6">
         <v>0.88600000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="10">
+        <f t="shared" si="1"/>
+        <v>31.01</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>6</v>
       </c>
@@ -4843,8 +5119,12 @@
       <c r="I82" s="6">
         <v>0.68600000000000005</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="10">
+        <f t="shared" si="1"/>
+        <v>24.01</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>6</v>
       </c>
@@ -4872,8 +5152,12 @@
       <c r="I83" s="6">
         <v>0.68600000000000005</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="10">
+        <f t="shared" si="1"/>
+        <v>24.01</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>6</v>
       </c>
@@ -4901,8 +5185,12 @@
       <c r="I84" s="6">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="10">
+        <f t="shared" si="1"/>
+        <v>19.984999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>6</v>
       </c>
@@ -4930,8 +5218,12 @@
       <c r="I85" s="6">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>6</v>
       </c>
@@ -4959,8 +5251,12 @@
       <c r="I86" s="7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>6</v>
       </c>
@@ -4988,8 +5284,12 @@
       <c r="I87" s="7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>6</v>
       </c>
@@ -5017,8 +5317,12 @@
       <c r="I88" s="7">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>6</v>
       </c>
@@ -5046,8 +5350,12 @@
       <c r="I89" s="7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>6</v>
       </c>
@@ -5075,8 +5383,12 @@
       <c r="I90" s="7">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J90" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>33</v>
       </c>
@@ -5104,8 +5416,12 @@
       <c r="I91" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J91" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>7</v>
       </c>
@@ -5133,8 +5449,12 @@
       <c r="I92" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J92" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>7</v>
       </c>
@@ -5162,8 +5482,12 @@
       <c r="I93" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J93" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>7</v>
       </c>
@@ -5191,8 +5515,12 @@
       <c r="I94" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J94" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>7</v>
       </c>
@@ -5220,37 +5548,45 @@
       <c r="I95" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J95" s="10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>7</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="C96" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="2">
         <v>100</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H96" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="I96" s="6">
+      <c r="I96" s="8">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>7</v>
       </c>
@@ -5278,8 +5614,12 @@
       <c r="I97" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J97" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>7</v>
       </c>
@@ -5307,8 +5647,12 @@
       <c r="I98" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J98" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>7</v>
       </c>
@@ -5336,8 +5680,12 @@
       <c r="I99" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>7</v>
       </c>
@@ -5365,8 +5713,12 @@
       <c r="I100" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>7</v>
       </c>
@@ -5394,8 +5746,12 @@
       <c r="I101" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>7</v>
       </c>
@@ -5423,8 +5779,12 @@
       <c r="I102" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>7</v>
       </c>
@@ -5452,8 +5812,12 @@
       <c r="I103" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>7</v>
       </c>
@@ -5481,8 +5845,12 @@
       <c r="I104" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J104" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>7</v>
       </c>
@@ -5510,8 +5878,12 @@
       <c r="I105" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J105" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>7</v>
       </c>
@@ -5539,8 +5911,12 @@
       <c r="I106" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J106" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>7</v>
       </c>
@@ -5568,8 +5944,12 @@
       <c r="I107" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>33</v>
       </c>
@@ -5597,13 +5977,17 @@
       <c r="I108" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>133</v>
@@ -5615,10 +5999,10 @@
         <v>40</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>72</v>
@@ -5626,13 +6010,17 @@
       <c r="I109" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J109" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>133</v>
@@ -5644,10 +6032,10 @@
         <v>20</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>222</v>
@@ -5655,13 +6043,17 @@
       <c r="I110" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>133</v>
@@ -5673,10 +6065,10 @@
         <v>30</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>37</v>
@@ -5684,13 +6076,17 @@
       <c r="I111" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J111" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>133</v>
@@ -5702,10 +6098,10 @@
         <v>30</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>37</v>
@@ -5713,13 +6109,17 @@
       <c r="I112" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J112" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>133</v>
@@ -5731,10 +6131,10 @@
         <v>30</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>37</v>
@@ -5742,13 +6142,17 @@
       <c r="I113" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J113" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>133</v>
@@ -5760,10 +6164,10 @@
         <v>40</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>37</v>
@@ -5771,13 +6175,17 @@
       <c r="I114" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J114" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>133</v>
@@ -5789,10 +6197,10 @@
         <v>20</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>37</v>
@@ -5800,13 +6208,17 @@
       <c r="I115" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B116" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C116" t="s">
         <v>133</v>
@@ -5818,24 +6230,32 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G116" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="H116" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="I116" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <f>SUM(J116:J124)/SUM(E116:E124)</f>
+        <v>0.30568571428571428</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B117" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C117" t="s">
         <v>133</v>
@@ -5847,24 +6267,28 @@
         <v>40</v>
       </c>
       <c r="F117" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G117" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H117" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="I117" s="7">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J117" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B118" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C118" t="s">
         <v>133</v>
@@ -5876,271 +6300,307 @@
         <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G118" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="H118" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="I118" s="7">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J118" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B119" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C119" t="s">
         <v>133</v>
       </c>
       <c r="D119" t="s">
-        <v>312</v>
+        <v>84</v>
       </c>
       <c r="E119">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F119" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="G119" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="H119" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="I119" s="7">
-        <v>0.64200000000000002</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+      <c r="J119" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B120" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C120" t="s">
         <v>133</v>
       </c>
       <c r="D120" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E120">
         <v>30</v>
       </c>
       <c r="F120" t="s">
+        <v>379</v>
+      </c>
+      <c r="G120" t="s">
+        <v>380</v>
+      </c>
+      <c r="H120" t="s">
+        <v>381</v>
+      </c>
+      <c r="I120" s="7">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="J120" s="10">
+        <f t="shared" si="1"/>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B121" t="s">
+        <v>359</v>
+      </c>
+      <c r="C121" t="s">
+        <v>133</v>
+      </c>
+      <c r="D121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121">
+        <v>50</v>
+      </c>
+      <c r="F121" t="s">
+        <v>388</v>
+      </c>
+      <c r="G121" t="s">
         <v>389</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H121" t="s">
         <v>390</v>
       </c>
-      <c r="H120" t="s">
-        <v>391</v>
-      </c>
-      <c r="I120" s="7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="B121" t="s">
-        <v>363</v>
-      </c>
-      <c r="C121" t="s">
-        <v>133</v>
-      </c>
-      <c r="D121" t="s">
-        <v>100</v>
-      </c>
-      <c r="E121">
-        <v>30</v>
-      </c>
-      <c r="F121" t="s">
-        <v>386</v>
-      </c>
-      <c r="G121" t="s">
-        <v>387</v>
-      </c>
-      <c r="H121" t="s">
-        <v>388</v>
-      </c>
       <c r="I121" s="7">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.16</v>
+      </c>
+      <c r="J121" s="10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B122" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C122" t="s">
         <v>133</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E122">
         <v>50</v>
       </c>
       <c r="F122" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G122" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H122" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I122" s="7">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J122" s="10">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000009</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B123" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C123" t="s">
         <v>133</v>
       </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E123">
         <v>50</v>
       </c>
       <c r="F123" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="G123" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H123" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I123" s="7">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="10">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000009</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B124" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C124" t="s">
         <v>133</v>
       </c>
       <c r="D124" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E124">
         <v>50</v>
       </c>
       <c r="F124" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G124" t="s">
+        <v>386</v>
+      </c>
+      <c r="H124" t="s">
+        <v>387</v>
+      </c>
+      <c r="I124" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="J124" s="10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" t="s">
+        <v>33</v>
+      </c>
+      <c r="F125" t="s">
+        <v>33</v>
+      </c>
+      <c r="G125" t="s">
+        <v>33</v>
+      </c>
+      <c r="H125" t="s">
+        <v>33</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J125" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E126" s="1">
+        <v>300</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="H124" t="s">
-        <v>402</v>
-      </c>
-      <c r="I124" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="B125" t="s">
-        <v>363</v>
-      </c>
-      <c r="C125" t="s">
-        <v>133</v>
-      </c>
-      <c r="D125" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125">
-        <v>50</v>
-      </c>
-      <c r="F125" t="s">
-        <v>392</v>
-      </c>
-      <c r="G125" t="s">
-        <v>393</v>
-      </c>
-      <c r="H125" t="s">
-        <v>394</v>
-      </c>
-      <c r="I125" s="7">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C126" t="s">
-        <v>33</v>
-      </c>
-      <c r="D126" t="s">
-        <v>33</v>
-      </c>
-      <c r="E126" t="s">
-        <v>33</v>
-      </c>
-      <c r="F126" t="s">
-        <v>33</v>
-      </c>
-      <c r="G126" t="s">
-        <v>33</v>
-      </c>
-      <c r="H126" t="s">
-        <v>33</v>
-      </c>
-      <c r="I126" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H126" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I126" s="6">
+        <v>1</v>
+      </c>
+      <c r="J126" s="10">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E127" s="1">
         <v>300</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>37</v>
@@ -6148,28 +6608,32 @@
       <c r="I127" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J127" s="10">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E128" s="1">
         <v>300</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>37</v>
@@ -6177,28 +6641,32 @@
       <c r="I128" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="10">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E129" s="1">
+        <v>400</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E129" s="1">
-        <v>300</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="G129" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>37</v>
@@ -6206,28 +6674,32 @@
       <c r="I129" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J129" s="10">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="E130" s="1">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>37</v>
@@ -6235,28 +6707,32 @@
       <c r="I130" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J130" s="10">
+        <f t="shared" ref="J130:J177" si="2">I130*E130</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E131" s="1">
         <v>220</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>37</v>
@@ -6264,416 +6740,484 @@
       <c r="I131" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>507</v>
+      <c r="J131" s="10">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>497</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E132" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>37</v>
+        <v>410</v>
       </c>
       <c r="I132" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E133" s="1">
-        <v>400</v>
-      </c>
-      <c r="F133" s="1" t="s">
+        <v>0.93</v>
+      </c>
+      <c r="J132" s="10">
+        <f t="shared" si="2"/>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B133" t="s">
+        <v>399</v>
+      </c>
+      <c r="C133" t="s">
+        <v>133</v>
+      </c>
+      <c r="D133" t="s">
+        <v>84</v>
+      </c>
+      <c r="E133">
+        <v>130</v>
+      </c>
+      <c r="F133" t="s">
+        <v>417</v>
+      </c>
+      <c r="G133" t="s">
         <v>418</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="H133" t="s">
         <v>419</v>
       </c>
-      <c r="H133" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="I133" s="6">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I133" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="J133" s="10">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="K133">
+        <f>SUM(J133:J142)/SUM(E133:E142)</f>
+        <v>0.59030530973451334</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B134" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C134" t="s">
         <v>133</v>
       </c>
       <c r="D134" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E134">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="F134" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="G134" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="H134" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="I134" s="7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="J134" s="10">
+        <f t="shared" si="2"/>
+        <v>230.1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B135" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C135" t="s">
         <v>133</v>
       </c>
       <c r="D135" t="s">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="E135">
-        <v>1020</v>
+        <v>300</v>
       </c>
       <c r="F135" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="G135" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="H135" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="I135" s="7">
-        <v>0.82899999999999996</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="J135" s="10">
+        <f t="shared" si="2"/>
+        <v>180.9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B136" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C136" t="s">
         <v>133</v>
       </c>
       <c r="D136" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E136">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="F136" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="G136" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="H136" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="I136" s="7">
-        <v>0.76700000000000002</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="J136" s="10">
+        <f t="shared" si="2"/>
+        <v>91.970000000000013</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B137" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C137" t="s">
         <v>133</v>
       </c>
       <c r="D137" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E137">
         <v>300</v>
       </c>
       <c r="F137" t="s">
+        <v>423</v>
+      </c>
+      <c r="G137" t="s">
         <v>424</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H137" t="s">
         <v>425</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" s="7">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="J137" s="10">
+        <f t="shared" si="2"/>
+        <v>144.9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B138" t="s">
+        <v>399</v>
+      </c>
+      <c r="C138" t="s">
+        <v>133</v>
+      </c>
+      <c r="D138" t="s">
+        <v>21</v>
+      </c>
+      <c r="E138">
+        <v>190</v>
+      </c>
+      <c r="F138" t="s">
+        <v>429</v>
+      </c>
+      <c r="G138" t="s">
+        <v>430</v>
+      </c>
+      <c r="H138" t="s">
+        <v>431</v>
+      </c>
+      <c r="I138" s="7">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="J138" s="10">
+        <f t="shared" si="2"/>
+        <v>120.08</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B139" t="s">
+        <v>399</v>
+      </c>
+      <c r="C139" t="s">
+        <v>133</v>
+      </c>
+      <c r="D139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139">
+        <v>190</v>
+      </c>
+      <c r="F139" t="s">
         <v>426</v>
       </c>
-      <c r="I137" s="7">
-        <v>0.60299999999999998</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="B138" t="s">
-        <v>406</v>
-      </c>
-      <c r="C138" t="s">
-        <v>133</v>
-      </c>
-      <c r="D138" t="s">
-        <v>100</v>
-      </c>
-      <c r="E138">
-        <v>170</v>
-      </c>
-      <c r="F138" t="s">
-        <v>451</v>
-      </c>
-      <c r="G138" t="s">
-        <v>452</v>
-      </c>
-      <c r="H138" t="s">
-        <v>453</v>
-      </c>
-      <c r="I138" s="7">
-        <v>0.54100000000000004</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="B139" t="s">
-        <v>406</v>
-      </c>
-      <c r="C139" t="s">
-        <v>133</v>
-      </c>
-      <c r="D139" t="s">
-        <v>69</v>
-      </c>
-      <c r="E139">
-        <v>300</v>
-      </c>
-      <c r="F139" t="s">
-        <v>433</v>
-      </c>
       <c r="G139" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="H139" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="I139" s="7">
-        <v>0.48299999999999998</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="J139" s="10">
+        <f t="shared" si="2"/>
+        <v>120.08</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B140" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C140" t="s">
         <v>133</v>
       </c>
       <c r="D140" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E140">
         <v>190</v>
       </c>
       <c r="F140" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G140" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="H140" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="I140" s="7">
         <v>0.63200000000000001</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="10">
+        <f t="shared" si="2"/>
+        <v>120.08</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B141" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C141" t="s">
         <v>133</v>
       </c>
       <c r="D141" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E141">
         <v>190</v>
       </c>
       <c r="F141" t="s">
+        <v>435</v>
+      </c>
+      <c r="G141" t="s">
         <v>436</v>
       </c>
-      <c r="G141" t="s">
-        <v>437</v>
-      </c>
       <c r="H141" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I141" s="7">
         <v>0.63200000000000001</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="10">
+        <f t="shared" si="2"/>
+        <v>120.08</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B142" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C142" t="s">
         <v>133</v>
       </c>
       <c r="D142" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E142">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="F142" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="G142" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="H142" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="I142" s="7">
-        <v>0.63200000000000001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="J142" s="10">
+        <f t="shared" si="2"/>
+        <v>114.9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>507</v>
+        <v>33</v>
       </c>
       <c r="B143" t="s">
-        <v>406</v>
+        <v>33</v>
       </c>
       <c r="C143" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
-      </c>
-      <c r="E143">
-        <v>190</v>
+        <v>33</v>
+      </c>
+      <c r="E143" t="s">
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>445</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>446</v>
+        <v>33</v>
       </c>
       <c r="H143" t="s">
-        <v>444</v>
-      </c>
-      <c r="I143" s="7">
-        <v>0.63200000000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J143" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="B144" t="s">
-        <v>406</v>
-      </c>
-      <c r="C144" t="s">
-        <v>133</v>
-      </c>
-      <c r="D144" t="s">
-        <v>73</v>
-      </c>
-      <c r="E144">
-        <v>300</v>
-      </c>
-      <c r="F144" t="s">
-        <v>430</v>
-      </c>
-      <c r="G144" t="s">
-        <v>431</v>
-      </c>
-      <c r="H144" t="s">
-        <v>432</v>
-      </c>
-      <c r="I144" s="7">
-        <v>0.38300000000000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E144" s="1">
+        <v>750</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I144" s="6">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="J144" s="10">
+        <f t="shared" si="2"/>
+        <v>717</v>
+      </c>
+      <c r="K144">
+        <f>SUM(J144:J148)/SUM(J144:J160)</f>
+        <v>0.99481525055062325</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B145" t="s">
-        <v>33</v>
-      </c>
-      <c r="C145" t="s">
-        <v>33</v>
-      </c>
-      <c r="D145" t="s">
-        <v>33</v>
-      </c>
-      <c r="E145" t="s">
-        <v>33</v>
-      </c>
-      <c r="F145" t="s">
-        <v>33</v>
-      </c>
-      <c r="G145" t="s">
-        <v>33</v>
-      </c>
-      <c r="H145" t="s">
-        <v>33</v>
-      </c>
-      <c r="I145" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E145" s="1">
+        <v>750</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I145" s="6">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="J145" s="10">
+        <f t="shared" si="2"/>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>308</v>
@@ -6682,27 +7226,31 @@
         <v>133</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E146" s="1">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F146" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="H146" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H146" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="I146" s="6">
-        <v>0.95599999999999996</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="J146" s="10">
+        <f t="shared" si="2"/>
+        <v>935</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>308</v>
@@ -6711,85 +7259,97 @@
         <v>133</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E147" s="1">
         <v>750</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I147" s="6">
-        <v>0.92800000000000005</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="J147" s="10">
+        <f t="shared" si="2"/>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="B148" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B148" t="s">
         <v>308</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E148" s="1">
+      <c r="C148" t="s">
+        <v>133</v>
+      </c>
+      <c r="D148" t="s">
+        <v>65</v>
+      </c>
+      <c r="E148">
         <v>1000</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="F148" t="s">
+        <v>321</v>
+      </c>
+      <c r="G148" t="s">
         <v>322</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="H148" t="s">
         <v>323</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I148" s="6">
-        <v>0.93500000000000005</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I148" s="7">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="J148" s="10">
+        <f t="shared" si="2"/>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="B149" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B149" t="s">
         <v>308</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E149" s="1">
-        <v>750</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I149" s="6">
-        <v>0.83599999999999997</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>133</v>
+      </c>
+      <c r="D149" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149">
+        <v>550</v>
+      </c>
+      <c r="F149" t="s">
+        <v>345</v>
+      </c>
+      <c r="G149" t="s">
+        <v>346</v>
+      </c>
+      <c r="H149" t="s">
+        <v>347</v>
+      </c>
+      <c r="I149" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="J149" s="10">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B150" t="s">
         <v>308</v>
@@ -6798,27 +7358,31 @@
         <v>133</v>
       </c>
       <c r="D150" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="E150">
-        <v>1000</v>
+        <v>475</v>
       </c>
       <c r="F150" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="G150" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="H150" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="I150" s="7">
-        <v>0.66100000000000003</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J150" s="10">
+        <f t="shared" si="2"/>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B151" t="s">
         <v>308</v>
@@ -6827,27 +7391,31 @@
         <v>133</v>
       </c>
       <c r="D151" t="s">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="E151">
-        <v>2550</v>
+        <v>475</v>
       </c>
       <c r="F151" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="G151" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="H151" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="I151" s="7">
-        <v>0.314</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J151" s="10">
+        <f t="shared" si="2"/>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B152" t="s">
         <v>308</v>
@@ -6856,27 +7424,31 @@
         <v>133</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E152">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="F152" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="G152" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="H152" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="I152" s="7">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J152" s="10">
+        <f t="shared" si="2"/>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B153" t="s">
         <v>308</v>
@@ -6885,27 +7457,31 @@
         <v>133</v>
       </c>
       <c r="D153" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E153">
         <v>475</v>
       </c>
       <c r="F153" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G153" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H153" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I153" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="10">
+        <f t="shared" si="2"/>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B154" t="s">
         <v>308</v>
@@ -6914,27 +7490,31 @@
         <v>133</v>
       </c>
       <c r="D154" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="E154">
-        <v>475</v>
+        <v>325</v>
       </c>
       <c r="F154" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G154" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H154" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="I154" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="10">
+        <f t="shared" si="2"/>
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B155" t="s">
         <v>308</v>
@@ -6943,27 +7523,31 @@
         <v>133</v>
       </c>
       <c r="D155" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="E155">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="F155" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G155" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H155" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="I155" s="7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J155" s="10">
+        <f t="shared" si="2"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B156" t="s">
         <v>308</v>
@@ -6972,27 +7556,31 @@
         <v>133</v>
       </c>
       <c r="D156" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E156">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="F156" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="G156" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="H156" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="I156" s="7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J156" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B157" t="s">
         <v>308</v>
@@ -7001,27 +7589,31 @@
         <v>133</v>
       </c>
       <c r="D157" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E157">
-        <v>325</v>
+        <v>750</v>
       </c>
       <c r="F157" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="G157" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="H157" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="I157" s="7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1E-3</v>
+      </c>
+      <c r="J157" s="10">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B158" t="s">
         <v>308</v>
@@ -7030,27 +7622,31 @@
         <v>133</v>
       </c>
       <c r="D158" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E158">
-        <v>750</v>
+        <v>425</v>
       </c>
       <c r="F158" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="G158" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="H158" t="s">
-        <v>330</v>
+        <v>169</v>
       </c>
       <c r="I158" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J158" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B159" t="s">
         <v>308</v>
@@ -7059,27 +7655,31 @@
         <v>133</v>
       </c>
       <c r="D159" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E159">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="F159" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G159" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="H159" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="I159" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B160" t="s">
         <v>308</v>
@@ -7088,608 +7688,596 @@
         <v>133</v>
       </c>
       <c r="D160" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E160">
         <v>750</v>
       </c>
       <c r="F160" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="G160" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="H160" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="I160" s="7">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J160" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>505</v>
+        <v>33</v>
       </c>
       <c r="B161" t="s">
-        <v>308</v>
+        <v>33</v>
       </c>
       <c r="C161" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="D161" t="s">
-        <v>100</v>
-      </c>
-      <c r="E161">
-        <v>425</v>
+        <v>33</v>
+      </c>
+      <c r="E161" t="s">
+        <v>33</v>
       </c>
       <c r="F161" t="s">
-        <v>358</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>359</v>
+        <v>33</v>
       </c>
       <c r="H161" t="s">
-        <v>169</v>
-      </c>
-      <c r="I161" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
-        <v>505</v>
+        <v>33</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J161" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>308</v>
+        <v>444</v>
       </c>
       <c r="C162" t="s">
         <v>133</v>
       </c>
       <c r="D162" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E162">
-        <v>750</v>
+        <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>352</v>
+        <v>454</v>
       </c>
       <c r="G162" t="s">
-        <v>353</v>
+        <v>455</v>
       </c>
       <c r="H162" t="s">
-        <v>354</v>
+        <v>456</v>
       </c>
       <c r="I162" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>505</v>
+      <c r="J162" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>308</v>
+        <v>444</v>
       </c>
       <c r="C163" t="s">
         <v>133</v>
       </c>
       <c r="D163" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E163">
-        <v>750</v>
+        <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>355</v>
+        <v>474</v>
       </c>
       <c r="G163" t="s">
-        <v>356</v>
+        <v>475</v>
       </c>
       <c r="H163" t="s">
-        <v>357</v>
+        <v>476</v>
       </c>
       <c r="I163" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>33</v>
+      <c r="J163" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>33</v>
+        <v>444</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="D164" t="s">
-        <v>33</v>
-      </c>
-      <c r="E164" t="s">
-        <v>33</v>
+        <v>57</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>454</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>483</v>
       </c>
       <c r="H164" t="s">
-        <v>33</v>
-      </c>
-      <c r="I164" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+      <c r="I164" s="7">
+        <v>0</v>
+      </c>
+      <c r="J164" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C165" t="s">
         <v>133</v>
       </c>
       <c r="D165" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E165">
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G165" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H165" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I165" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C166" t="s">
         <v>133</v>
       </c>
       <c r="D166" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E166">
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="G166" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="H166" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="I166" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C167" t="s">
         <v>133</v>
       </c>
       <c r="D167" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E167">
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="G167" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H167" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="I167" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C168" t="s">
         <v>133</v>
       </c>
       <c r="D168" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E168">
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="G168" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="H168" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="I168" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J168" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C169" t="s">
         <v>133</v>
       </c>
       <c r="D169" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E169">
         <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="G169" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="H169" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="I169" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C170" t="s">
         <v>133</v>
       </c>
       <c r="D170" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E170">
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>495</v>
+        <v>448</v>
       </c>
       <c r="G170" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="H170" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="I170" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C171" t="s">
         <v>133</v>
       </c>
       <c r="D171" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E171">
         <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="G171" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="H171" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="I171" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C172" t="s">
         <v>133</v>
       </c>
       <c r="D172" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="E172">
         <v>1</v>
       </c>
       <c r="F172" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G172" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H172" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="I172" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C173" t="s">
         <v>133</v>
       </c>
       <c r="D173" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E173">
         <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="G173" t="s">
+        <v>481</v>
+      </c>
+      <c r="H173" t="s">
         <v>482</v>
       </c>
-      <c r="H173" t="s">
-        <v>483</v>
-      </c>
       <c r="I173" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C174" t="s">
         <v>133</v>
       </c>
       <c r="D174" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E174">
         <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="G174" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="H174" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="I174" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C175" t="s">
         <v>133</v>
       </c>
       <c r="D175" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E175">
         <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="G175" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="H175" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="I175" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J175" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C176" t="s">
         <v>133</v>
       </c>
       <c r="D176" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E176">
         <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="G176" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="H176" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="I176" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J176" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C177" t="s">
         <v>133</v>
       </c>
       <c r="D177" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E177">
         <v>1</v>
       </c>
       <c r="F177" t="s">
+        <v>457</v>
+      </c>
+      <c r="G177" t="s">
         <v>458</v>
       </c>
-      <c r="G177" t="s">
+      <c r="H177" t="s">
         <v>459</v>
       </c>
-      <c r="H177" t="s">
-        <v>460</v>
-      </c>
       <c r="I177" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
-        <v>8</v>
-      </c>
-      <c r="B178" t="s">
-        <v>454</v>
-      </c>
-      <c r="C178" t="s">
-        <v>133</v>
-      </c>
-      <c r="D178" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178">
-        <v>1</v>
-      </c>
-      <c r="F178" t="s">
-        <v>461</v>
-      </c>
-      <c r="G178" t="s">
-        <v>462</v>
-      </c>
-      <c r="H178" t="s">
-        <v>463</v>
-      </c>
-      <c r="I178" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
-        <v>8</v>
-      </c>
-      <c r="B179" t="s">
-        <v>454</v>
-      </c>
-      <c r="C179" t="s">
-        <v>133</v>
-      </c>
-      <c r="D179" t="s">
-        <v>29</v>
-      </c>
-      <c r="E179">
-        <v>1</v>
-      </c>
-      <c r="F179" t="s">
-        <v>476</v>
-      </c>
-      <c r="G179" t="s">
-        <v>477</v>
-      </c>
-      <c r="H179" t="s">
-        <v>478</v>
-      </c>
-      <c r="I179" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
-        <v>8</v>
-      </c>
-      <c r="B180" t="s">
-        <v>454</v>
-      </c>
-      <c r="C180" t="s">
-        <v>133</v>
-      </c>
-      <c r="D180" t="s">
-        <v>9</v>
-      </c>
-      <c r="E180">
-        <v>1</v>
-      </c>
-      <c r="F180" t="s">
-        <v>467</v>
-      </c>
-      <c r="G180" t="s">
-        <v>468</v>
-      </c>
-      <c r="H180" t="s">
-        <v>469</v>
-      </c>
-      <c r="I180" s="7">
-        <v>0</v>
-      </c>
+      <c r="J177" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J178" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:I180">
-    <sortCondition ref="A2:A180"/>
-    <sortCondition ref="H2:H180"/>
+  <sortState ref="A2:I177">
+    <sortCondition ref="A2:A177"/>
+    <sortCondition ref="H2:H177"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
